--- a/TAEE/web/resources/files/Plantilla-Usuario.xlsx
+++ b/TAEE/web/resources/files/Plantilla-Usuario.xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
